--- a/廠商需求/智慧製造-刀具資料庫0619.xlsx
+++ b/廠商需求/智慧製造-刀具資料庫0619.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://manuteq1-my.sharepoint.com/personal/jentso_manuteq_com/Documents/Sync/Y111/昇威機械/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repos\CutterWarehouseManager\廠商需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{D0F05609-478C-449A-9B0D-C6A737A1C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D2599BE-8810-43B3-B7FC-5E81ABA7A162}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC275BFD-D0ED-4FAC-9201-5A849F10A57F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19620" windowHeight="8970" tabRatio="725" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table List" sheetId="3" r:id="rId1"/>
@@ -19,20 +19,21 @@
     <sheet name="3" sheetId="5" r:id="rId4"/>
     <sheet name="4" sheetId="6" r:id="rId5"/>
     <sheet name="5" sheetId="8" r:id="rId6"/>
-    <sheet name="6" sheetId="9" r:id="rId7"/>
-    <sheet name="7" sheetId="10" r:id="rId8"/>
-    <sheet name="8" sheetId="7" r:id="rId9"/>
-    <sheet name="9" sheetId="11" r:id="rId10"/>
-    <sheet name="10" sheetId="12" r:id="rId11"/>
-    <sheet name="11" sheetId="15" r:id="rId12"/>
-    <sheet name="12" sheetId="16" r:id="rId13"/>
+    <sheet name="5 (修正)" sheetId="18" r:id="rId7"/>
+    <sheet name="6" sheetId="9" r:id="rId8"/>
+    <sheet name="7" sheetId="10" r:id="rId9"/>
+    <sheet name="8" sheetId="7" r:id="rId10"/>
+    <sheet name="9" sheetId="11" r:id="rId11"/>
+    <sheet name="10" sheetId="12" r:id="rId12"/>
+    <sheet name="11" sheetId="15" r:id="rId13"/>
+    <sheet name="12" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621" fullPrecision="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="238">
   <si>
     <t>System Name</t>
   </si>
@@ -1200,6 +1201,29 @@
     <t>未確認</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>[DepotPosition].[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PositionId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1208,7 +1232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1324,6 +1348,12 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1416,7 +1446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1487,49 +1517,122 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1545,50 +1648,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1940,30 +1999,30 @@
   </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="1"/>
-    <col min="2" max="2" width="38.1796875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-    </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1976,154 +2035,154 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
+    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="52">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="50"/>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
+      <c r="D4" s="33"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="50"/>
-    </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="D5" s="33"/>
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A6" s="54">
         <v>3</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="50"/>
-    </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="54">
         <v>4</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="50"/>
-    </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="D7" s="35"/>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="54">
         <v>5</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="50"/>
-    </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="51">
+      <c r="D8" s="35"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="52">
         <v>6</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A10" s="51">
+      <c r="D9" s="33"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="52">
         <v>7</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" s="51">
+      <c r="D10" s="33"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="52">
         <v>8</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="D11" s="33"/>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="54">
         <v>9</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="56"/>
-    </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="54">
         <v>10</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="56"/>
-    </row>
-    <row r="14" spans="1:5" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57">
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36">
         <v>11</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="53"/>
-    </row>
-    <row r="15" spans="1:5" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="40" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2164,6 +2223,513 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="G21" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="72">
+    <mergeCell ref="C21"/>
+    <mergeCell ref="G21"/>
+    <mergeCell ref="A21"/>
+    <mergeCell ref="D21"/>
+    <mergeCell ref="C19"/>
+    <mergeCell ref="G19"/>
+    <mergeCell ref="A19"/>
+    <mergeCell ref="D19"/>
+    <mergeCell ref="C20"/>
+    <mergeCell ref="G20"/>
+    <mergeCell ref="A20"/>
+    <mergeCell ref="D20"/>
+    <mergeCell ref="C17"/>
+    <mergeCell ref="G17"/>
+    <mergeCell ref="A17"/>
+    <mergeCell ref="D17"/>
+    <mergeCell ref="C18"/>
+    <mergeCell ref="G18"/>
+    <mergeCell ref="A18"/>
+    <mergeCell ref="D18"/>
+    <mergeCell ref="C15"/>
+    <mergeCell ref="G15"/>
+    <mergeCell ref="A15"/>
+    <mergeCell ref="D15"/>
+    <mergeCell ref="C16"/>
+    <mergeCell ref="G16"/>
+    <mergeCell ref="A16"/>
+    <mergeCell ref="D16"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="G13"/>
+    <mergeCell ref="A13"/>
+    <mergeCell ref="D13"/>
+    <mergeCell ref="C14"/>
+    <mergeCell ref="G14"/>
+    <mergeCell ref="A14"/>
+    <mergeCell ref="D14"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="G11"/>
+    <mergeCell ref="A11"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="C12"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="A12"/>
+    <mergeCell ref="D12"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="G9"/>
+    <mergeCell ref="A9"/>
+    <mergeCell ref="D9"/>
+    <mergeCell ref="C10"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="A10"/>
+    <mergeCell ref="D10"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="D7"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="A8"/>
+    <mergeCell ref="D8"/>
+    <mergeCell ref="C6"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="G6"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" location="'Table List'!A1" display="Back to list" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2175,29 +2741,29 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
@@ -2205,35 +2771,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -2242,7 +2808,7 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2255,20 +2821,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>32</v>
       </c>
@@ -2277,18 +2843,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="5" t="s">
         <v>42</v>
       </c>
@@ -2297,22 +2863,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="62" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="5" t="s">
         <v>32</v>
       </c>
@@ -2321,18 +2887,18 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="7"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="5" t="s">
         <v>42</v>
       </c>
@@ -2341,22 +2907,22 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:10" ht="27" x14ac:dyDescent="0.2">
+      <c r="A10" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="62" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>224</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="5" t="s">
         <v>38</v>
       </c>
@@ -2365,18 +2931,18 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="7"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="5" t="s">
         <v>35</v>
       </c>
@@ -2385,18 +2951,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="7"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="5" t="s">
         <v>66</v>
       </c>
@@ -2405,11 +2971,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="G13" s="40"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="G13" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -2464,7 +3030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2476,29 +3042,29 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="60" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
@@ -2506,35 +3072,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -2543,7 +3109,7 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -2556,22 +3122,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>38</v>
       </c>
@@ -2580,18 +3146,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="5" t="s">
         <v>42</v>
       </c>
@@ -2600,18 +3166,18 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="26" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:10" ht="27" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="5" t="s">
         <v>42</v>
       </c>
@@ -2620,11 +3186,11 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="G9" s="40"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="G9" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2663,7 +3229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6EFACA-CF3B-4825-AD72-68E43B9F015C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2675,32 +3241,32 @@
       <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="13"/>
-    <col min="2" max="2" width="24.54296875" style="13" customWidth="1"/>
-    <col min="3" max="4" width="3.453125" style="13"/>
-    <col min="5" max="5" width="31.54296875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="3.453125" style="13"/>
+    <col min="1" max="1" width="3.42578125" style="13"/>
+    <col min="2" max="2" width="24.5703125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="3.42578125" style="13"/>
+    <col min="5" max="5" width="31.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="3.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="11" t="s">
         <v>17</v>
       </c>
@@ -2708,33 +3274,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="50" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -2743,7 +3309,7 @@
       <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="11" t="s">
@@ -2756,20 +3322,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="22"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="44"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="19" t="s">
         <v>32</v>
       </c>
@@ -2778,18 +3344,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="72" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="22"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="44"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="19" t="s">
         <v>38</v>
       </c>
@@ -2798,18 +3364,18 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="72" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="22"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="44"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="19" t="s">
         <v>42</v>
       </c>
@@ -2820,18 +3386,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="22"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="44"/>
+      <c r="G9" s="71"/>
       <c r="H9" s="19" t="s">
         <v>35</v>
       </c>
@@ -2840,18 +3406,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="22"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="44"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="19" t="s">
         <v>42</v>
       </c>
@@ -2860,8 +3426,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="72" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -2882,8 +3448,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="72" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -2904,8 +3470,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="72" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -2926,8 +3492,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="72" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -2948,8 +3514,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="72" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -2970,8 +3536,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="72" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -2990,11 +3556,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="G17" s="40"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="G17" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -3047,7 +3613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6461A9-26DF-4AED-9BAC-D04614D8EC08}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -3055,32 +3621,32 @@
       <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="16"/>
-    <col min="2" max="2" width="24.54296875" style="16" customWidth="1"/>
-    <col min="3" max="4" width="3.453125" style="16"/>
-    <col min="5" max="5" width="31.54296875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="16" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" style="16" customWidth="1"/>
-    <col min="11" max="16384" width="3.453125" style="16"/>
+    <col min="1" max="1" width="3.42578125" style="16"/>
+    <col min="2" max="2" width="24.5703125" style="16" customWidth="1"/>
+    <col min="3" max="4" width="3.42578125" style="16"/>
+    <col min="5" max="5" width="31.5703125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="3.42578125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
       <c r="H1" s="17" t="s">
         <v>17</v>
       </c>
@@ -3088,25 +3654,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
@@ -3138,7 +3704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
@@ -3160,7 +3726,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>19</v>
       </c>
@@ -3178,17 +3744,17 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>28</v>
       </c>
@@ -3210,7 +3776,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>29</v>
       </c>
@@ -3232,7 +3798,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>58</v>
       </c>
@@ -3276,32 +3842,32 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
@@ -3309,35 +3875,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -3346,7 +3912,7 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -3359,20 +3925,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>32</v>
       </c>
@@ -3381,18 +3947,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="5" t="s">
         <v>42</v>
       </c>
@@ -3401,18 +3967,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="5" t="s">
         <v>107</v>
       </c>
@@ -3421,11 +3987,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="G9" s="40"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="G9" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -3469,36 +4035,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
@@ -3506,35 +4072,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -3543,7 +4109,7 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -3556,20 +4122,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>32</v>
       </c>
@@ -3580,90 +4146,114 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62" t="s">
+        <v>113</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="49" t="s">
+      <c r="J7" s="30" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>3</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="65">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="7"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="65">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="G10" s="40"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="G11" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C10"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="A10"/>
+    <mergeCell ref="D10"/>
+    <mergeCell ref="C11"/>
+    <mergeCell ref="G11"/>
+    <mergeCell ref="A11"/>
+    <mergeCell ref="D11"/>
+    <mergeCell ref="C7"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="A7"/>
+    <mergeCell ref="D7"/>
     <mergeCell ref="C9"/>
     <mergeCell ref="G9"/>
     <mergeCell ref="A9"/>
     <mergeCell ref="D9"/>
-    <mergeCell ref="C10"/>
-    <mergeCell ref="G10"/>
-    <mergeCell ref="A10"/>
-    <mergeCell ref="D10"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="G7"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="D7"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="D8"/>
     <mergeCell ref="C6"/>
     <mergeCell ref="A5"/>
     <mergeCell ref="G5"/>
@@ -3699,29 +4289,29 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
@@ -3729,35 +4319,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -3766,7 +4356,7 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -3779,22 +4369,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>38</v>
       </c>
@@ -3803,18 +4393,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="5" t="s">
         <v>40</v>
       </c>
@@ -3823,7 +4413,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
@@ -3847,22 +4437,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G6"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="D6"/>
     <mergeCell ref="C7"/>
     <mergeCell ref="G7"/>
     <mergeCell ref="A7"/>
     <mergeCell ref="D7"/>
     <mergeCell ref="C6"/>
-    <mergeCell ref="A5"/>
-    <mergeCell ref="G5"/>
-    <mergeCell ref="G6"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="G5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -3886,29 +4476,29 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="60" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
@@ -3916,35 +4506,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -3953,7 +4543,7 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -3966,22 +4556,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>38</v>
       </c>
@@ -3990,18 +4580,18 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="5" t="s">
         <v>183</v>
       </c>
@@ -4010,18 +4600,18 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="62" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -4032,11 +4622,11 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="G9" s="40"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="G9" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -4084,32 +4674,32 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
@@ -4117,35 +4707,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -4154,7 +4744,7 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -4167,20 +4757,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>32</v>
       </c>
@@ -4191,22 +4781,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="62" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>196</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="5" t="s">
         <v>32</v>
       </c>
@@ -4215,22 +4805,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="62"/>
+      <c r="D8" s="62" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>171</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="5" t="s">
         <v>32</v>
       </c>
@@ -4239,22 +4829,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="62" t="s">
         <v>113</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -4265,18 +4855,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="7"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="5" t="s">
         <v>38</v>
       </c>
@@ -4285,38 +4875,38 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="7"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="30" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="7"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="5" t="s">
         <v>42</v>
       </c>
@@ -4325,18 +4915,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="65" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="7"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="5" t="s">
         <v>36</v>
       </c>
@@ -4345,18 +4935,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="7"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="37"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="5" t="s">
         <v>36</v>
       </c>
@@ -4365,18 +4955,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="65" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="7"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="37"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="5" t="s">
         <v>36</v>
       </c>
@@ -4385,18 +4975,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="65" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="7"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="37"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="5" t="s">
         <v>66</v>
       </c>
@@ -4405,18 +4995,18 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="65" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="7"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="37"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="5" t="s">
         <v>66</v>
       </c>
@@ -4425,20 +5015,20 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
         <v>64</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="7" t="s">
         <v>206</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="37"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="5" t="s">
         <v>38</v>
       </c>
@@ -4449,18 +5039,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="65" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="7"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="37"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="5" t="s">
         <v>38</v>
       </c>
@@ -4471,18 +5061,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="65" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="7"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="37"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="5" t="s">
         <v>38</v>
       </c>
@@ -4491,18 +5081,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="65" t="s">
         <v>85</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="7"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="37"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="5" t="s">
         <v>35</v>
       </c>
@@ -4511,18 +5101,18 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="65" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="7"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="37"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="5" t="s">
         <v>66</v>
       </c>
@@ -4531,18 +5121,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="65" t="s">
         <v>91</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="7"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="37"/>
+      <c r="G23" s="62"/>
       <c r="H23" s="5" t="s">
         <v>66</v>
       </c>
@@ -4551,11 +5141,11 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="G24" s="40"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="G24" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="84">
@@ -4655,6 +5245,502 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21709129-B542-49B0-B609-B91CE53EB18C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="44"/>
+    <col min="2" max="2" width="24.5703125" style="44" customWidth="1"/>
+    <col min="3" max="4" width="3.42578125" style="44"/>
+    <col min="5" max="5" width="31.5703125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="44" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="44" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" style="44" customWidth="1"/>
+    <col min="11" max="16384" width="3.42578125" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" location="'Table List'!A1" display="Back to list" xr:uid="{8D976F87-6881-4FA4-B3A2-6F718A0E85FC}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4666,29 +5752,29 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
@@ -4696,35 +5782,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -4733,7 +5819,7 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -4746,22 +5832,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>38</v>
       </c>
@@ -4770,18 +5856,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="5" t="s">
         <v>42</v>
       </c>
@@ -4790,7 +5876,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -4812,22 +5898,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G6"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="D6"/>
     <mergeCell ref="C7"/>
     <mergeCell ref="G7"/>
     <mergeCell ref="A7"/>
     <mergeCell ref="D7"/>
     <mergeCell ref="C6"/>
-    <mergeCell ref="A5"/>
-    <mergeCell ref="G5"/>
-    <mergeCell ref="G6"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="G5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -4839,7 +5925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4851,29 +5937,29 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="60" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
@@ -4881,35 +5967,35 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="64" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -4918,7 +6004,7 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
@@ -4931,22 +6017,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="7"/>
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="62"/>
       <c r="H6" s="5" t="s">
         <v>38</v>
       </c>
@@ -4955,20 +6041,20 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="62" t="s">
         <v>113</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="5" t="s">
         <v>121</v>
       </c>
@@ -4977,7 +6063,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -4997,7 +6083,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>4</v>
       </c>
@@ -5019,22 +6105,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G6"/>
+    <mergeCell ref="D5"/>
+    <mergeCell ref="A6"/>
+    <mergeCell ref="D6"/>
     <mergeCell ref="C7"/>
     <mergeCell ref="G7"/>
     <mergeCell ref="A7"/>
     <mergeCell ref="D7"/>
     <mergeCell ref="C6"/>
-    <mergeCell ref="A5"/>
-    <mergeCell ref="G5"/>
-    <mergeCell ref="G6"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="D6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="G5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -5044,511 +6130,4 @@
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="25" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="G21" s="40"/>
-    </row>
-  </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="C21"/>
-    <mergeCell ref="G21"/>
-    <mergeCell ref="A21"/>
-    <mergeCell ref="D21"/>
-    <mergeCell ref="C19"/>
-    <mergeCell ref="G19"/>
-    <mergeCell ref="A19"/>
-    <mergeCell ref="D19"/>
-    <mergeCell ref="C20"/>
-    <mergeCell ref="G20"/>
-    <mergeCell ref="A20"/>
-    <mergeCell ref="D20"/>
-    <mergeCell ref="C17"/>
-    <mergeCell ref="G17"/>
-    <mergeCell ref="A17"/>
-    <mergeCell ref="D17"/>
-    <mergeCell ref="C18"/>
-    <mergeCell ref="G18"/>
-    <mergeCell ref="A18"/>
-    <mergeCell ref="D18"/>
-    <mergeCell ref="C15"/>
-    <mergeCell ref="G15"/>
-    <mergeCell ref="A15"/>
-    <mergeCell ref="D15"/>
-    <mergeCell ref="C16"/>
-    <mergeCell ref="G16"/>
-    <mergeCell ref="A16"/>
-    <mergeCell ref="D16"/>
-    <mergeCell ref="C13"/>
-    <mergeCell ref="G13"/>
-    <mergeCell ref="A13"/>
-    <mergeCell ref="D13"/>
-    <mergeCell ref="C14"/>
-    <mergeCell ref="G14"/>
-    <mergeCell ref="A14"/>
-    <mergeCell ref="D14"/>
-    <mergeCell ref="C11"/>
-    <mergeCell ref="G11"/>
-    <mergeCell ref="A11"/>
-    <mergeCell ref="D11"/>
-    <mergeCell ref="C12"/>
-    <mergeCell ref="G12"/>
-    <mergeCell ref="A12"/>
-    <mergeCell ref="D12"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="G9"/>
-    <mergeCell ref="A9"/>
-    <mergeCell ref="D9"/>
-    <mergeCell ref="C10"/>
-    <mergeCell ref="G10"/>
-    <mergeCell ref="A10"/>
-    <mergeCell ref="D10"/>
-    <mergeCell ref="C7"/>
-    <mergeCell ref="G7"/>
-    <mergeCell ref="A7"/>
-    <mergeCell ref="D7"/>
-    <mergeCell ref="C8"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="D8"/>
-    <mergeCell ref="C6"/>
-    <mergeCell ref="A5"/>
-    <mergeCell ref="G5"/>
-    <mergeCell ref="G6"/>
-    <mergeCell ref="D5"/>
-    <mergeCell ref="A6"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C5"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C1:G1"/>
-  </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J2" location="'Table List'!A1" display="Back to list" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>